--- a/Tables - ordinal - Treatment v. Control at T2 - weight_a.xlsx
+++ b/Tables - ordinal - Treatment v. Control at T2 - weight_a.xlsx
@@ -568,72 +568,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -1060,72 +1012,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -1356,72 +1260,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1848,72 +1704,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -2340,72 +2148,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -2832,72 +2592,24 @@
           <t>How accurately video describes California's future in 2050</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3324,72 +3036,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -3718,72 +3382,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -4210,72 +3826,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -4506,72 +4074,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -4998,72 +4518,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2</v>
-      </c>
-      <c r="M58" t="n">
-        <v>2</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -5490,72 +4962,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -5982,72 +5406,24 @@
           <t>How accurately video describes California's future in 2050</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -6474,72 +5850,24 @@
           <t>Things in California going in right/wrong direction</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2</v>
-      </c>
-      <c r="M76" t="n">
-        <v>2</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>0 (P=0.050)</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
